--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H2">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I2">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J2">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N2">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q2">
-        <v>706.6881237470669</v>
+        <v>2283.134082982199</v>
       </c>
       <c r="R2">
-        <v>706.6881237470669</v>
+        <v>20548.20674683979</v>
       </c>
       <c r="S2">
-        <v>0.009328953195090701</v>
+        <v>0.02168397653449508</v>
       </c>
       <c r="T2">
-        <v>0.009328953195090701</v>
+        <v>0.02168397653449508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H3">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I3">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J3">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N3">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P3">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q3">
-        <v>10733.4148176446</v>
+        <v>16295.38444419332</v>
       </c>
       <c r="R3">
-        <v>10733.4148176446</v>
+        <v>146658.4599977398</v>
       </c>
       <c r="S3">
-        <v>0.1416912511934867</v>
+        <v>0.1547647755522639</v>
       </c>
       <c r="T3">
-        <v>0.1416912511934867</v>
+        <v>0.154764775552264</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H4">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I4">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J4">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N4">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q4">
-        <v>9549.204395172312</v>
+        <v>15935.32546524621</v>
       </c>
       <c r="R4">
-        <v>9549.204395172312</v>
+        <v>143417.9291872159</v>
       </c>
       <c r="S4">
-        <v>0.1260585509496991</v>
+        <v>0.1513451295013735</v>
       </c>
       <c r="T4">
-        <v>0.1260585509496991</v>
+        <v>0.1513451295013736</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H5">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I5">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J5">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N5">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q5">
-        <v>11929.97996481977</v>
+        <v>18209.055335276</v>
       </c>
       <c r="R5">
-        <v>11929.97996481977</v>
+        <v>163881.498017484</v>
       </c>
       <c r="S5">
-        <v>0.1574870455160035</v>
+        <v>0.1729397898916678</v>
       </c>
       <c r="T5">
-        <v>0.1574870455160035</v>
+        <v>0.1729397898916679</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H6">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I6">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J6">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N6">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q6">
-        <v>4563.308239805314</v>
+        <v>6917.615209626557</v>
       </c>
       <c r="R6">
-        <v>4563.308239805314</v>
+        <v>62258.53688663901</v>
       </c>
       <c r="S6">
-        <v>0.06023999491910549</v>
+        <v>0.06569977952599204</v>
       </c>
       <c r="T6">
-        <v>0.06023999491910549</v>
+        <v>0.06569977952599206</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>151.422271097185</v>
+        <v>228.2871476666667</v>
       </c>
       <c r="H7">
-        <v>151.422271097185</v>
+        <v>684.861443</v>
       </c>
       <c r="I7">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018374</v>
       </c>
       <c r="J7">
-        <v>0.5331482951864464</v>
+        <v>0.6105798777018375</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N7">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q7">
-        <v>2904.526199600633</v>
+        <v>4648.234666334115</v>
       </c>
       <c r="R7">
-        <v>2904.526199600633</v>
+        <v>41834.11199700704</v>
       </c>
       <c r="S7">
-        <v>0.03834249941306084</v>
+        <v>0.04414642669604497</v>
       </c>
       <c r="T7">
-        <v>0.03834249941306084</v>
+        <v>0.04414642669604497</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>55.2876777858051</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H8">
-        <v>55.2876777858051</v>
+        <v>169.980652</v>
       </c>
       <c r="I8">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J8">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N8">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q8">
-        <v>258.0277326292813</v>
+        <v>566.6673514700058</v>
       </c>
       <c r="R8">
-        <v>258.0277326292813</v>
+        <v>5100.006163230052</v>
       </c>
       <c r="S8">
-        <v>0.003406210688769812</v>
+        <v>0.005381900977138486</v>
       </c>
       <c r="T8">
-        <v>0.003406210688769812</v>
+        <v>0.005381900977138488</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>55.2876777858051</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H9">
-        <v>55.2876777858051</v>
+        <v>169.980652</v>
       </c>
       <c r="I9">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J9">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N9">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P9">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q9">
-        <v>3919.011223906764</v>
+        <v>4044.467827362618</v>
       </c>
       <c r="R9">
-        <v>3919.011223906764</v>
+        <v>36400.21044626356</v>
       </c>
       <c r="S9">
-        <v>0.05173466349626492</v>
+        <v>0.03841217478935733</v>
       </c>
       <c r="T9">
-        <v>0.05173466349626492</v>
+        <v>0.03841217478935734</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.2876777858051</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H10">
-        <v>55.2876777858051</v>
+        <v>169.980652</v>
       </c>
       <c r="I10">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J10">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N10">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q10">
-        <v>3486.629357000151</v>
+        <v>3955.102218266877</v>
       </c>
       <c r="R10">
-        <v>3486.629357000151</v>
+        <v>35595.9199644019</v>
       </c>
       <c r="S10">
-        <v>0.04602681294206284</v>
+        <v>0.03756342841696216</v>
       </c>
       <c r="T10">
-        <v>0.04602681294206284</v>
+        <v>0.03756342841696217</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.2876777858051</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H11">
-        <v>55.2876777858051</v>
+        <v>169.980652</v>
       </c>
       <c r="I11">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J11">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N11">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q11">
-        <v>4355.904078751649</v>
+        <v>4519.435470970576</v>
       </c>
       <c r="R11">
-        <v>4355.904078751649</v>
+        <v>40674.91923873518</v>
       </c>
       <c r="S11">
-        <v>0.05750206336780465</v>
+        <v>0.0429231613824823</v>
       </c>
       <c r="T11">
-        <v>0.05750206336780465</v>
+        <v>0.04292316138248231</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.2876777858051</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H12">
-        <v>55.2876777858051</v>
+        <v>169.980652</v>
       </c>
       <c r="I12">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J12">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N12">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q12">
-        <v>1666.166500948458</v>
+        <v>1716.932316216608</v>
       </c>
       <c r="R12">
-        <v>1666.166500948458</v>
+        <v>15452.39084594947</v>
       </c>
       <c r="S12">
-        <v>0.02199497738855376</v>
+        <v>0.01630649742985221</v>
       </c>
       <c r="T12">
-        <v>0.02199497738855376</v>
+        <v>0.01630649742985222</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.2876777858051</v>
+        <v>56.66021733333333</v>
       </c>
       <c r="H13">
-        <v>55.2876777858051</v>
+        <v>169.980652</v>
       </c>
       <c r="I13">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="J13">
-        <v>0.1946644370259187</v>
+        <v>0.1515441798784964</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N13">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q13">
-        <v>1060.507859777664</v>
+        <v>1153.678553973545</v>
       </c>
       <c r="R13">
-        <v>1060.507859777664</v>
+        <v>10383.1069857619</v>
       </c>
       <c r="S13">
-        <v>0.01399970914246272</v>
+        <v>0.01095701688270386</v>
       </c>
       <c r="T13">
-        <v>0.01399970914246272</v>
+        <v>0.01095701688270386</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.551596317104025</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H14">
-        <v>0.551596317104025</v>
+        <v>1.940476</v>
       </c>
       <c r="I14">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J14">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N14">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q14">
-        <v>2.574301412702046</v>
+        <v>6.468997398075111</v>
       </c>
       <c r="R14">
-        <v>2.574301412702046</v>
+        <v>58.220976582676</v>
       </c>
       <c r="S14">
-        <v>3.39832191629539E-05</v>
+        <v>6.143904943083629E-05</v>
       </c>
       <c r="T14">
-        <v>3.39832191629539E-05</v>
+        <v>6.143904943083632E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.551596317104025</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H15">
-        <v>0.551596317104025</v>
+        <v>1.940476</v>
       </c>
       <c r="I15">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J15">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N15">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P15">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q15">
-        <v>39.0993480712138</v>
+        <v>46.17109453003688</v>
       </c>
       <c r="R15">
-        <v>39.0993480712138</v>
+        <v>415.539850770332</v>
       </c>
       <c r="S15">
-        <v>0.0005161484618998131</v>
+        <v>0.0004385081620145388</v>
       </c>
       <c r="T15">
-        <v>0.0005161484618998131</v>
+        <v>0.000438508162014539</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.551596317104025</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H16">
-        <v>0.551596317104025</v>
+        <v>1.940476</v>
       </c>
       <c r="I16">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J16">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N16">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q16">
-        <v>34.78554335161162</v>
+        <v>45.15090889340533</v>
       </c>
       <c r="R16">
-        <v>34.78554335161162</v>
+        <v>406.358180040648</v>
       </c>
       <c r="S16">
-        <v>0.0004592021499842422</v>
+        <v>0.000428818988886059</v>
       </c>
       <c r="T16">
-        <v>0.0004592021499842422</v>
+        <v>0.0004288189888860592</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.551596317104025</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H17">
-        <v>0.551596317104025</v>
+        <v>1.940476</v>
       </c>
       <c r="I17">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J17">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N17">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q17">
-        <v>43.45815819587009</v>
+        <v>51.59326053748222</v>
       </c>
       <c r="R17">
-        <v>43.45815819587009</v>
+        <v>464.33934483734</v>
       </c>
       <c r="S17">
-        <v>0.0005736888878285782</v>
+        <v>0.0004900049713118744</v>
       </c>
       <c r="T17">
-        <v>0.0005736888878285782</v>
+        <v>0.0004900049713118746</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.551596317104025</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H18">
-        <v>0.551596317104025</v>
+        <v>1.940476</v>
       </c>
       <c r="I18">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J18">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N18">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q18">
-        <v>16.62307664948143</v>
+        <v>19.60026575990977</v>
       </c>
       <c r="R18">
-        <v>16.62307664948143</v>
+        <v>176.402391839188</v>
       </c>
       <c r="S18">
-        <v>0.0002194403709505681</v>
+        <v>0.0001861527564130646</v>
       </c>
       <c r="T18">
-        <v>0.0002194403709505681</v>
+        <v>0.0001861527564130646</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.551596317104025</v>
+        <v>0.6468253333333333</v>
       </c>
       <c r="H19">
-        <v>0.551596317104025</v>
+        <v>1.940476</v>
       </c>
       <c r="I19">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257072</v>
       </c>
       <c r="J19">
-        <v>0.001942135948458909</v>
+        <v>0.001730007742257073</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N19">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q19">
-        <v>10.58051727148903</v>
+        <v>13.17023743208355</v>
       </c>
       <c r="R19">
-        <v>10.58051727148903</v>
+        <v>118.532136888752</v>
       </c>
       <c r="S19">
-        <v>0.0001396728586327535</v>
+        <v>0.0001250838142006989</v>
       </c>
       <c r="T19">
-        <v>0.0001396728586327535</v>
+        <v>0.0001250838142006989</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.619611583896011</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H20">
-        <v>0.619611583896011</v>
+        <v>2.240248</v>
       </c>
       <c r="I20">
-        <v>0.002181613426071994</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J20">
-        <v>0.002181613426071994</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N20">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q20">
-        <v>2.891728835544857</v>
+        <v>7.468352343983112</v>
       </c>
       <c r="R20">
-        <v>2.891728835544857</v>
+        <v>67.21517109584801</v>
       </c>
       <c r="S20">
-        <v>3.817356207523797E-05</v>
+        <v>7.093038389000026E-05</v>
       </c>
       <c r="T20">
-        <v>3.817356207523797E-05</v>
+        <v>7.09303838900003E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.619611583896011</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H21">
-        <v>0.619611583896011</v>
+        <v>2.240248</v>
       </c>
       <c r="I21">
-        <v>0.002181613426071994</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J21">
-        <v>0.002181613426071994</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N21">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P21">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q21">
-        <v>43.92054159262523</v>
+        <v>53.30377813419289</v>
       </c>
       <c r="R21">
-        <v>43.92054159262523</v>
+        <v>479.7340032077361</v>
       </c>
       <c r="S21">
-        <v>0.0005797927870191348</v>
+        <v>0.0005062505451944505</v>
       </c>
       <c r="T21">
-        <v>0.0005797927870191348</v>
+        <v>0.0005062505451944509</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.619611583896011</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H22">
-        <v>0.619611583896011</v>
+        <v>2.240248</v>
       </c>
       <c r="I22">
-        <v>0.002181613426071994</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J22">
-        <v>0.002181613426071994</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N22">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q22">
-        <v>39.07481784130671</v>
+        <v>52.12599039958933</v>
       </c>
       <c r="R22">
-        <v>39.07481784130671</v>
+        <v>469.1339135963041</v>
       </c>
       <c r="S22">
-        <v>0.0005158246396096428</v>
+        <v>0.0004950645523129458</v>
       </c>
       <c r="T22">
-        <v>0.0005158246396096428</v>
+        <v>0.0004950645523129462</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.619611583896011</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H23">
-        <v>0.619611583896011</v>
+        <v>2.240248</v>
       </c>
       <c r="I23">
-        <v>0.002181613426071994</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J23">
-        <v>0.002181613426071994</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N23">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q23">
-        <v>48.81682019618761</v>
+        <v>59.56358065370223</v>
       </c>
       <c r="R23">
-        <v>48.81682019618761</v>
+        <v>536.0722258833201</v>
       </c>
       <c r="S23">
-        <v>0.000644428306405769</v>
+        <v>0.0005657027744591967</v>
       </c>
       <c r="T23">
-        <v>0.000644428306405769</v>
+        <v>0.000565702774459197</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.619611583896011</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H24">
-        <v>0.619611583896011</v>
+        <v>2.240248</v>
       </c>
       <c r="I24">
-        <v>0.002181613426071994</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J24">
-        <v>0.002181613426071994</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N24">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q24">
-        <v>18.67280569617644</v>
+        <v>22.62818822191378</v>
       </c>
       <c r="R24">
-        <v>18.67280569617644</v>
+        <v>203.653693997224</v>
       </c>
       <c r="S24">
-        <v>0.0002464987375718241</v>
+        <v>0.0002149103314077861</v>
       </c>
       <c r="T24">
-        <v>0.0002464987375718241</v>
+        <v>0.0002149103314077862</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.619611583896011</v>
+        <v>0.7467493333333334</v>
       </c>
       <c r="H25">
-        <v>0.619611583896011</v>
+        <v>2.240248</v>
       </c>
       <c r="I25">
-        <v>0.002181613426071994</v>
+        <v>0.00199726581754988</v>
       </c>
       <c r="J25">
-        <v>0.002181613426071994</v>
+        <v>0.001997265817549881</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N25">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q25">
-        <v>11.8851610530062</v>
+        <v>15.20482503609956</v>
       </c>
       <c r="R25">
-        <v>11.8851610530062</v>
+        <v>136.843425324896</v>
       </c>
       <c r="S25">
-        <v>0.0001568953933903859</v>
+        <v>0.0001444072302855008</v>
       </c>
       <c r="T25">
-        <v>0.0001568953933903859</v>
+        <v>0.0001444072302855008</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.742817901972584</v>
+        <v>0.8022086666666667</v>
       </c>
       <c r="H26">
-        <v>0.742817901972584</v>
+        <v>2.406626</v>
       </c>
       <c r="I26">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="J26">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N26">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q26">
-        <v>3.466733034890381</v>
+        <v>8.023009474036222</v>
       </c>
       <c r="R26">
-        <v>3.466733034890381</v>
+        <v>72.207085266326</v>
       </c>
       <c r="S26">
-        <v>4.576416262790115E-05</v>
+        <v>7.619821825961044E-05</v>
       </c>
       <c r="T26">
-        <v>4.576416262790115E-05</v>
+        <v>7.619821825961046E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.742817901972584</v>
+        <v>0.8022086666666667</v>
       </c>
       <c r="H27">
-        <v>0.742817901972584</v>
+        <v>2.406626</v>
       </c>
       <c r="I27">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="J27">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N27">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P27">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q27">
-        <v>52.65389706595432</v>
+        <v>57.26252555787578</v>
       </c>
       <c r="R27">
-        <v>52.65389706595432</v>
+        <v>515.3627300208821</v>
       </c>
       <c r="S27">
-        <v>0.0006950813587511492</v>
+        <v>0.0005438485938070874</v>
       </c>
       <c r="T27">
-        <v>0.0006950813587511492</v>
+        <v>0.0005438485938070876</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.742817901972584</v>
+        <v>0.8022086666666667</v>
       </c>
       <c r="H28">
-        <v>0.742817901972584</v>
+        <v>2.406626</v>
       </c>
       <c r="I28">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="J28">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N28">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q28">
-        <v>46.84462809157498</v>
+        <v>55.99726627203867</v>
       </c>
       <c r="R28">
-        <v>46.84462809157498</v>
+        <v>503.975396448348</v>
       </c>
       <c r="S28">
-        <v>0.0006183935009273572</v>
+        <v>0.0005318318432935531</v>
       </c>
       <c r="T28">
-        <v>0.0006183935009273572</v>
+        <v>0.0005318318432935533</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.742817901972584</v>
+        <v>0.8022086666666667</v>
       </c>
       <c r="H29">
-        <v>0.742817901972584</v>
+        <v>2.406626</v>
       </c>
       <c r="I29">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="J29">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N29">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q29">
-        <v>58.52377344383346</v>
+        <v>63.98722902745445</v>
       </c>
       <c r="R29">
-        <v>58.52377344383346</v>
+        <v>575.8850612470901</v>
       </c>
       <c r="S29">
-        <v>0.0007725692917587827</v>
+        <v>0.0006077162016373361</v>
       </c>
       <c r="T29">
-        <v>0.0007725692917587827</v>
+        <v>0.0006077162016373363</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.742817901972584</v>
+        <v>0.8022086666666667</v>
       </c>
       <c r="H30">
-        <v>0.742817901972584</v>
+        <v>2.406626</v>
       </c>
       <c r="I30">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="J30">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N30">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q30">
-        <v>22.38578927779274</v>
+        <v>24.30873104573756</v>
       </c>
       <c r="R30">
-        <v>22.38578927779274</v>
+        <v>218.778579411638</v>
       </c>
       <c r="S30">
-        <v>0.0002955136408694437</v>
+        <v>0.0002308712210588268</v>
       </c>
       <c r="T30">
-        <v>0.0002955136408694437</v>
+        <v>0.0002308712210588269</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.742817901972584</v>
+        <v>0.8022086666666667</v>
       </c>
       <c r="H31">
-        <v>0.742817901972584</v>
+        <v>2.406626</v>
       </c>
       <c r="I31">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="J31">
-        <v>0.002615415124876029</v>
+        <v>0.002145598096919091</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N31">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O31">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P31">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q31">
-        <v>14.24845924036504</v>
+        <v>16.33405196983911</v>
       </c>
       <c r="R31">
-        <v>14.24845924036504</v>
+        <v>147.006467728552</v>
       </c>
       <c r="S31">
-        <v>0.0001880931699413956</v>
+        <v>0.0001551320188626766</v>
       </c>
       <c r="T31">
-        <v>0.0001880931699413956</v>
+        <v>0.0001551320188626767</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>75.39132174151879</v>
+        <v>86.74265433333333</v>
       </c>
       <c r="H32">
-        <v>75.39132174151879</v>
+        <v>260.227963</v>
       </c>
       <c r="I32">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629401</v>
       </c>
       <c r="J32">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629402</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N32">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O32">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P32">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q32">
-        <v>351.8514900237541</v>
+        <v>867.5263263000348</v>
       </c>
       <c r="R32">
-        <v>351.8514900237541</v>
+        <v>7807.736936700313</v>
       </c>
       <c r="S32">
-        <v>0.004644773234125188</v>
+        <v>0.008239297307486841</v>
       </c>
       <c r="T32">
-        <v>0.004644773234125188</v>
+        <v>0.008239297307486845</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>75.39132174151879</v>
+        <v>86.74265433333333</v>
       </c>
       <c r="H33">
-        <v>75.39132174151879</v>
+        <v>260.227963</v>
       </c>
       <c r="I33">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629401</v>
       </c>
       <c r="J33">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629402</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N33">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O33">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P33">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q33">
-        <v>5344.037729977443</v>
+        <v>6191.784839921721</v>
       </c>
       <c r="R33">
-        <v>5344.037729977443</v>
+        <v>55726.06355929549</v>
       </c>
       <c r="S33">
-        <v>0.0705463643444528</v>
+        <v>0.05880623401676569</v>
       </c>
       <c r="T33">
-        <v>0.0705463643444528</v>
+        <v>0.05880623401676572</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>75.39132174151879</v>
+        <v>86.74265433333333</v>
       </c>
       <c r="H34">
-        <v>75.39132174151879</v>
+        <v>260.227963</v>
       </c>
       <c r="I34">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629401</v>
       </c>
       <c r="J34">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629402</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N34">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O34">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P34">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q34">
-        <v>4754.43364912881</v>
+        <v>6054.97261956832</v>
       </c>
       <c r="R34">
-        <v>4754.43364912881</v>
+        <v>54494.75357611487</v>
       </c>
       <c r="S34">
-        <v>0.0627630315148211</v>
+        <v>0.05750686531219081</v>
       </c>
       <c r="T34">
-        <v>0.0627630315148211</v>
+        <v>0.05750686531219083</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>75.39132174151879</v>
+        <v>86.74265433333333</v>
       </c>
       <c r="H35">
-        <v>75.39132174151879</v>
+        <v>260.227963</v>
       </c>
       <c r="I35">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629401</v>
       </c>
       <c r="J35">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629402</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N35">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O35">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P35">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q35">
-        <v>5939.793079185438</v>
+        <v>6918.925611137312</v>
       </c>
       <c r="R35">
-        <v>5939.793079185438</v>
+        <v>62270.3305002358</v>
       </c>
       <c r="S35">
-        <v>0.07841089974801577</v>
+        <v>0.06571222501301872</v>
       </c>
       <c r="T35">
-        <v>0.07841089974801577</v>
+        <v>0.06571222501301877</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>75.39132174151879</v>
+        <v>86.74265433333333</v>
       </c>
       <c r="H36">
-        <v>75.39132174151879</v>
+        <v>260.227963</v>
       </c>
       <c r="I36">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629401</v>
       </c>
       <c r="J36">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629402</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N36">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O36">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P36">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q36">
-        <v>2272.016112425631</v>
+        <v>2628.497973157086</v>
       </c>
       <c r="R36">
-        <v>2272.016112425631</v>
+        <v>23656.48175841377</v>
       </c>
       <c r="S36">
-        <v>0.02999276662373458</v>
+        <v>0.0249640565553024</v>
       </c>
       <c r="T36">
-        <v>0.02999276662373458</v>
+        <v>0.02496405655530241</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>75.39132174151879</v>
+        <v>86.74265433333333</v>
       </c>
       <c r="H37">
-        <v>75.39132174151879</v>
+        <v>260.227963</v>
       </c>
       <c r="I37">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629401</v>
       </c>
       <c r="J37">
-        <v>0.2654481032882279</v>
+        <v>0.2320030707629402</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N37">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O37">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P37">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q37">
-        <v>1446.128549215988</v>
+        <v>1766.197602638453</v>
       </c>
       <c r="R37">
-        <v>1446.128549215988</v>
+        <v>15895.77842374607</v>
       </c>
       <c r="S37">
-        <v>0.01909026782307854</v>
+        <v>0.0167743925581756</v>
       </c>
       <c r="T37">
-        <v>0.01909026782307854</v>
+        <v>0.0167743925581756</v>
       </c>
     </row>
   </sheetData>
